--- a/resources/import/offers_report.xlsx
+++ b/resources/import/offers_report.xlsx
@@ -41,12 +41,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF475569"/>
+      <name val="Inter"/>
     </font>
     <font>
       <color rgb="FF475569"/>
@@ -67,17 +72,34 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -296,7 +318,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.5"/>
+    <col customWidth="1" min="1" max="2" width="17.5"/>
+    <col customWidth="1" min="3" max="3" width="20.5"/>
+    <col customWidth="1" min="4" max="4" width="27.13"/>
+    <col customWidth="1" min="5" max="5" width="21.75"/>
+    <col customWidth="1" min="6" max="6" width="28.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -324,6 +350,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
